--- a/data/trans_dic/P55$auxiliar-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P55$auxiliar-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,57 +730,57 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,18; 33,78</t>
+          <t>6,14; 33,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,57; 33,99</t>
+          <t>6,43; 33,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,68; 36,47</t>
+          <t>17,64; 37,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,98</t>
+          <t>0,0; 11,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,2; 37,04</t>
+          <t>15,42; 37,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 21,27</t>
+          <t>3,8; 20,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,53; 39,51</t>
+          <t>26,54; 39,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,9</t>
+          <t>0,0; 7,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,13; 31,36</t>
+          <t>13,93; 30,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,58; 21,36</t>
+          <t>6,86; 20,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,03; 36,14</t>
+          <t>25,02; 36,82</t>
         </is>
       </c>
     </row>
@@ -869,7 +870,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 20,86</t>
+          <t>2,45; 22,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,47 +880,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,38; 31,28</t>
+          <t>10,85; 30,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,55</t>
+          <t>0,0; 7,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,76; 24,51</t>
+          <t>8,79; 25,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 13,77</t>
+          <t>0,0; 13,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,25; 33,1</t>
+          <t>20,36; 33,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,43</t>
+          <t>0,0; 4,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,98; 21,63</t>
+          <t>8,95; 21,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 8,2</t>
+          <t>1,01; 8,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,75; 30,41</t>
+          <t>19,24; 30,1</t>
         </is>
       </c>
     </row>
@@ -1009,57 +1010,57 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,01</t>
+          <t>0,0; 19,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,17</t>
+          <t>0,0; 18,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,07; 33,14</t>
+          <t>5,55; 32,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,74</t>
+          <t>0,0; 13,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,9; 29,42</t>
+          <t>7,89; 28,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 19,0</t>
+          <t>2,03; 21,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,82; 27,86</t>
+          <t>13,07; 28,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,14</t>
+          <t>0,0; 7,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 20,45</t>
+          <t>5,53; 20,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 15,07</t>
+          <t>1,75; 16,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,85; 25,71</t>
+          <t>12,58; 25,83</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,4</t>
+          <t>0,0; 18,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,16</t>
+          <t>0,0; 13,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,47 +1160,47 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 17,14</t>
+          <t>3,2; 17,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 17,98</t>
+          <t>3,17; 18,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 26,93</t>
+          <t>9,16; 26,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 13,75</t>
+          <t>1,55; 12,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,12; 25,91</t>
+          <t>14,0; 25,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 15,39</t>
+          <t>3,09; 14,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 18,66</t>
+          <t>7,18; 19,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 9,52</t>
+          <t>0,0; 8,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,07; 20,95</t>
+          <t>12,21; 21,22</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,37</t>
+          <t>0,0; 3,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,38; 13,59</t>
+          <t>4,28; 14,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 9,63</t>
+          <t>2,08; 9,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,92; 23,98</t>
+          <t>13,98; 23,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,38</t>
+          <t>1,87; 7,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,1; 23,8</t>
+          <t>13,99; 23,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,71; 10,81</t>
+          <t>3,77; 10,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,52; 27,68</t>
+          <t>21,26; 28,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,09</t>
+          <t>1,62; 5,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,78; 19,01</t>
+          <t>11,65; 19,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 9,16</t>
+          <t>3,86; 9,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,0; 25,34</t>
+          <t>19,86; 25,56</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda los Servicios Sociales cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5002</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13182</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15286</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5849</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25992</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20494</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10850</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>39174</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1748</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1999; 10994</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1785; 9243</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8756; 18627</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5247</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9405; 22632</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2285; 12321</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21148; 31734</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5851</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13030; 28120</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6034; 17720</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>32350; 47608</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4489</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7630</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14355</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3889</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>22971</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18844</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3889</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>30602</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1837</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1117; 10155</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1664</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4199; 11835</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5067</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7761; 22604</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10133</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17508; 29213</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5524</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11998; 29463</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1190; 10206</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>23988; 37531</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8576</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11530</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9637</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4816</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15496</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1864</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5560</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4201</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1418; 8234</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6249</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4096; 15046</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1046; 10968</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7620; 16798</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4981</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4417; 16659</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1312; 12010</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10546; 21652</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1087</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3769</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6439</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>13479</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3809</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>20259</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>7274</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>14566</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3809</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>24028</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4322</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5563</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1656</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1383; 7501</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2281; 13226</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7167; 20737</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1220; 10162</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>14602; 26908</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2935; 13550</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>8493; 22836</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9213</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>18007; 31294</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11846</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5811</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>28548</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9646</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>51695</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>17553</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>80752</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10482</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>63540</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>23364</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>109300</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4607</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6250; 20530</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2529; 12082</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>21961; 37320</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4324; 17142</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>39099; 65787</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10079; 28185</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>69791; 92136</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5776; 19551</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>49579; 81000</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>15005; 35978</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>96364; 124046</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>